--- a/Pertemuan 10-14/Model_Drift4.xlsx
+++ b/Pertemuan 10-14/Model_Drift4.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -90,6 +90,204 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ma3, ma7, intercept, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(2,0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ma1, NA, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,0,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ar4, ar5, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,0,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ar5, ar6, ma2, ma3, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar4, ma1, ma4, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ma1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma2, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(2,0,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,0,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, NA, NA, ma2, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar4, ma1, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ma2, ma3, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, ar3, ar4, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, NA, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ar6, ma1, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma7, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, ma4, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma5, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, NA, ar4, ar5, ma1, ma2, NA, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ma6, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, intercept, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ma1, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma2, intercept, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, ma3, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, ar3, NA, NA, ma3, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma5, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4, intercept, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, ar5, NA, ma2, NA, NA, ma5, NA, intercept, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, ar5, ar6, NA, NA, NA, NA, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, ma5, ma7, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma4, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, ar5, NA, NA, NA, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, NA, NA, ma1, NA, NA, NA, ma6, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, ar3, NA, NA, ar6, ma1, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, ma7, intercept, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(0,1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semua parameter signifikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(1,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(2,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,1,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar3, NA, NA, ma3, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar2, NA, NA, drift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ar4, ma1, ma2, ma3, ma4, ma5, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,1,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, ma5, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma2, ma3, ma4, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,1,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
   </si>
 </sst>
 </file>
@@ -566,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>6961.23955347811</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -580,27 +778,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>6963.81431976839</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>6963.82568112383</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -608,55 +806,55 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>6967.82049533175</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>6958.31700110351</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>6961.98456056287</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>6963.80168149191</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>-1874.88433941189</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -706,41 +904,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>-1872.85096879339</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>-1871.61997032956</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>-1867.78556338015</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -748,27 +946,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>-1868.23793668813</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>-1863.1453178451</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -776,13 +974,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>-1868.81542276118</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>-742.129168046881</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -832,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>-738.480362981201</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -846,27 +1044,27 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>-736.479227328318</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>-734.946575415843</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -874,27 +1072,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>-736.734596292443</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>-728.156619410391</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -902,13 +1100,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>-731.552185270304</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>-13970.1368060868</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -958,41 +1156,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>-13968.6511810588</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>-13965.2514409673</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>-13963.9135572103</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1000,27 +1198,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>-13970.9132566012</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>-13966.9293452629</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1028,13 +1226,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>-13969.8103411118</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>6189.19789329584</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1084,41 +1282,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>6192.78586090681</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>6179.80629271081</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>6179.15025707955</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1126,27 +1324,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>6182.91120940147</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>6185.65578424638</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1154,13 +1352,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>6166.61242458653</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1193,100 +1391,100 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B2" t="n">
-        <v>-9987.90124251588</v>
+        <v>-8915.40153960128</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B3" t="n">
-        <v>-9984.00722867471</v>
+        <v>-8911.48745123196</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>-9982.0595400543</v>
+        <v>-8908.30867474027</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B5" t="n">
-        <v>-9980.80974371874</v>
+        <v>-8909.15773477379</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B6" t="n">
-        <v>-9991.22850408399</v>
+        <v>-8907.158268298</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>-9995.30005892405</v>
+        <v>-8904.8960462401</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.04776623411</v>
+        <v>-8909.83479296358</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
